--- a/EXERCICE.xlsx
+++ b/EXERCICE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benro\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISTQB\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C96F3-A66B-4BE1-8F0C-DE70E4281B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93D688-B56E-42E9-8611-23B666CB1401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27555" yWindow="1980" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Xi</t>
   </si>
@@ -72,6 +61,9 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>ajout</t>
   </si>
 </sst>
 </file>
@@ -107,12 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +396,7 @@
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -427,12 +418,15 @@
         <f>C2-A2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="2" t="e">
+      <c r="E2" t="e">
         <f>C3-A3</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -444,7 +438,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -456,7 +450,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -468,7 +462,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -480,7 +474,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -492,7 +486,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -504,7 +498,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -516,7 +510,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -528,7 +522,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
